--- a/Plan de test.xlsx
+++ b/Plan de test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spart\Documents\GitHub\JonathanBinot_5_25022021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5440747-1A7F-4014-8660-AA6C22F0E921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEC2919-BD8F-43C9-98E0-6BC884E58CF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D66CEF9-EE62-4792-A9B5-A6E822CB7761}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D66CEF9-EE62-4792-A9B5-A6E822CB7761}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
   <si>
     <t>Fichier JS</t>
   </si>
   <si>
-    <t>Fonction testée</t>
-  </si>
-  <si>
     <t>Résultat attendu</t>
   </si>
   <si>
@@ -63,26 +60,305 @@
     <t>getItemsNumber()</t>
   </si>
   <si>
-    <t>La fonction doit retourner le nombre d'articles se trouvant dans le panier, ou zero si rien ne s'y trouve.</t>
-  </si>
-  <si>
-    <t>Le résultat est observable dans la navbar, mais il peut également être vérifié par un console.log de la longueur du tableau "shoppingCart" situé dans le localStorage</t>
-  </si>
-  <si>
     <t>La valeur retournée pourrait être null si le tableau ne s'initialisait pas</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner le nombre d'articles se trouvant dans le panier, ou zero si rien ne s'y trouve. Elle doit aussi initialiser le localstorage (et le tableau shoppingCart) s'il n'est pas présent.</t>
+  </si>
+  <si>
+    <t>Élément de code testé</t>
+  </si>
+  <si>
+    <t>Le résultat est observable dans la navbar, mais il peut également être vérifié par un console.log de la longueur du tableau "shoppingCart" situé dans le localStorage. Pour ce qui est de l'initialisation, il est possible d'observer le comportement de la fonction en supprimant le userShoppingCart du localstorage en y accédant via le menu "application" de l'inspécteur</t>
+  </si>
+  <si>
+    <t>27 à 39</t>
+  </si>
+  <si>
+    <t>getProductsInfo()</t>
+  </si>
+  <si>
+    <t>La fonction effectue l'appel à l'API, retourne les informations reçues et supprime le bloc contenant le message d'erreur si l'appel à l'api se fait correctement.</t>
+  </si>
+  <si>
+    <t>Il est possible de vérifier si la fonction a bien fonctionnée notamment grâce à des console.log affichant le statut de la réponse reçue de l'api : si elle est entre 200 et 299, alors l'appel a fonctionné, sinon une erreur est présente. Il est également possible de vérifier si l'appel a bien fonctionné en affichant le résultat obtenu sous forme de tableau.</t>
+  </si>
+  <si>
+    <t>Si l'appel ne foncitonnait pas, les articles ne s'afficheraient pas sur la page d'accueil. Le site ne serait ainsi pas fonctionnel.</t>
+  </si>
+  <si>
+    <t>45 à 103</t>
+  </si>
+  <si>
+    <t>productsLibrary()</t>
+  </si>
+  <si>
+    <t>La vérification de cette fonction peut être faite en observant le comportement de la page sur le navigateur, si les articles s'affichent correctement (image, nom, prix) la récupération des données retournées par l'API a correctement fonctionnée et la syntaxe était correcte.</t>
+  </si>
+  <si>
+    <t>La fonction crée les blocs contenant les informations pour chaque article retournés par l'API pour les afficher sur le site</t>
+  </si>
+  <si>
+    <t>Les articles pourraient ne pas s'afficher, certaines valeurs pourraient apparaître comme non définies, les images pourraient ne pas charger</t>
+  </si>
+  <si>
+    <t>productsLibrary() -&gt; productSelect</t>
+  </si>
+  <si>
+    <t>La variable productSelect crée un lien qui redirige vers la page produit assignée à chaque article retourné par l'API grâce à son ID</t>
+  </si>
+  <si>
+    <t>85 à 87</t>
+  </si>
+  <si>
+    <t>Pour vérifier si la variable remplit son objectif, on pourrait afficher l'id du produit dans la console et le comparer avec l'URL de la page vers laquelle le lien a redirgé. De plus si le produit sélectionné est bien celui affiché sur la page produit, la variable a fonctionné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La page sur laquelle nous serions redirigés pourrait retourner une erreur </t>
+  </si>
+  <si>
+    <t>43 à 205</t>
+  </si>
+  <si>
+    <t>productsDetailPage()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fonction permet d'afficher les caractéristiques du produit sélectionné au moyen de l'ID. Elle récupère l'ID du produit dans le lien de la page et retourne ses caractéristiques grâce à l'appel de l'API. </t>
+  </si>
+  <si>
+    <t>Pour vérifier si la fonction est bien opérationnelle, on peut comparer l'ID du lien avec le produit affiché sur la page. De plus, il est possible de retourner les caractéristiques du produit pour voir si elles sont valides en affichant le tableau du produit sélectionné au moyen d'un console.log</t>
+  </si>
+  <si>
+    <t>Si la fonction ne fonctionnait pas, le produit ne s'afficherait pas sur la page, le nom et les informations non plus.</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>soldProductOptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>++)</t>
+    </r>
+  </si>
+  <si>
+    <t>132 à 138</t>
+  </si>
+  <si>
+    <t>La boucle for permet d'afficher les options disponibles pour l'article sélectionné et de les afficher sous forme d'un select déroulant</t>
+  </si>
+  <si>
+    <t>Afin de vérifier si la boucle fonctionne correctement et retourne bien toutes les options, on peut effectuer un console.log sur le tableau selectedProduct.lenses afin de voir toutes les options disponibles, si il en manque dans le résultat final, alors les valeurs de i dans la boucle ne sont pas bonnes</t>
+  </si>
+  <si>
+    <t>Si les valeurs de la boucle n'étaient pas bonnes, il pourrait manquer des options à la liste. En plus de ceci, les si le tableau des options n'était pas correctement appelé, aucune option ne serait disponible sur le site.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -132,15 +408,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -459,351 +741,402 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83A0E75-BCCE-4D77-AAC1-046A2BC4E49B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan de test.xlsx
+++ b/Plan de test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spart\Documents\GitHub\JonathanBinot_5_25022021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEC2919-BD8F-43C9-98E0-6BC884E58CF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5805637-1C22-4A7B-8CE3-658D806F6794}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D66CEF9-EE62-4792-A9B5-A6E822CB7761}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D66CEF9-EE62-4792-A9B5-A6E822CB7761}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -290,20 +290,241 @@
     <t>132 à 138</t>
   </si>
   <si>
-    <t>La boucle for permet d'afficher les options disponibles pour l'article sélectionné et de les afficher sous forme d'un select déroulant</t>
-  </si>
-  <si>
     <t>Afin de vérifier si la boucle fonctionne correctement et retourne bien toutes les options, on peut effectuer un console.log sur le tableau selectedProduct.lenses afin de voir toutes les options disponibles, si il en manque dans le résultat final, alors les valeurs de i dans la boucle ne sont pas bonnes</t>
   </si>
   <si>
     <t>Si les valeurs de la boucle n'étaient pas bonnes, il pourrait manquer des options à la liste. En plus de ceci, les si le tableau des options n'était pas correctement appelé, aucune option ne serait disponible sur le site.</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>i &lt;= 10; i++)</t>
+    </r>
+  </si>
+  <si>
+    <t>153 à 158</t>
+  </si>
+  <si>
+    <t>Pour vérifier si son fonctionnement est optimal, nous pouvons observer les quantités disponibles sur la page. Elles doivent aller de 1 à 10</t>
+  </si>
+  <si>
+    <t>Les valeurs affichées pourraient ne pas être correctes (de 1 à 10)</t>
+  </si>
+  <si>
+    <r>
+      <t>selectionQuantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t>161 à 164</t>
+  </si>
+  <si>
+    <t>Cette fonction assigne au select la valeur de quantité choisie</t>
+  </si>
+  <si>
+    <t>La boucle for permet d'afficher les options disponibles pour l'article sélectionné, de les afficher sous forme d'un select déroulant et de définir la valeur de l'option initiale à "null" afin que l'utilisateur soit obligé de choisir une valeur</t>
+  </si>
+  <si>
+    <t>Cette boucle for permet de créer un select afin de choisir la quantité d'articles choisi et de définir la valeur de quantité initiale à "1"</t>
+  </si>
+  <si>
+    <t>113 à 121</t>
+  </si>
+  <si>
+    <r>
+      <t>selectionChange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t>Cette fonction assigne au select la valeur de l'option choisie. Elle vérifie également si l'index du select est à 0 pour lui assigner une valeur nulle, ou s'il correspond à une option</t>
+  </si>
+  <si>
+    <t>Pour vérifier si cette fonction atteint son but, il est possible d'utiliser l'inspecteur sur l'élement select et de choisir une option au hasard. Son attribut value doit changer lors du changement de l'&lt;option&gt;. Il est également possible d'utiliser un alert ou console.log afin de retourner la valeur du select au changement d'option</t>
+  </si>
+  <si>
+    <t>Pour vérifier si cette fonction réalise bien son objectif, il est possible d'utiliser l'inspecteur sur l'élement select et de choisir une quantité au hasard. Son attribut value doit changer lors du changement de l'&lt;option&gt;. Il est également possible d'utiliser un alert ou console.log afin de retourner la valeur du select au changement d'option</t>
+  </si>
+  <si>
+    <t>Le principal problème pouvant survenir pourrait être que la valeur du select ne change pas, ne permettant ainsi pas de choisir une option</t>
+  </si>
+  <si>
+    <t>Un problème pouvant survenir pourrait être que la quantité choisie ne change pas, ne permettant ainsi pas d'obtenir une valeur valide à envoyer au localStorage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +581,36 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -408,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,6 +675,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,20 +996,20 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" customWidth="1"/>
-    <col min="5" max="5" width="44.109375" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -775,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,7 +1049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,7 +1069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,7 +1089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,7 +1109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,57 +1129,87 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,7 +1219,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,7 +1229,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -955,7 +1239,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,7 +1249,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,7 +1259,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -985,7 +1269,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -995,7 +1279,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1289,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1299,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1309,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1319,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1329,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1339,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1349,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1359,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1369,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1379,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1389,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1399,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1409,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1136,6 +1420,7 @@
       <c r="F31" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Plan de test.xlsx
+++ b/Plan de test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spart\Documents\GitHub\JonathanBinot_5_25022021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5805637-1C22-4A7B-8CE3-658D806F6794}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1535FB-BDE2-49C6-B0E0-CDD7DEABC9F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D66CEF9-EE62-4792-A9B5-A6E822CB7761}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D66CEF9-EE62-4792-A9B5-A6E822CB7761}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -518,13 +518,827 @@
   </si>
   <si>
     <t>Un problème pouvant survenir pourrait être que la quantité choisie ne change pas, ne permettant ainsi pas d'obtenir une valeur valide à envoyer au localStorage</t>
+  </si>
+  <si>
+    <t>207 à 253</t>
+  </si>
+  <si>
+    <r>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>addToCart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Cette fonction permet de détecter le moment où le client appuie sur le bouton d'ajout au panier et d'exécuter la fonction d'ajout de l'article, de ses options et de sa quantité au panier.</t>
+  </si>
+  <si>
+    <t>Un des problèmes possibles avec cette fonction pourrait être le fait que le produit ne s'ajoute pas lors de l'appui sur le bouton. Toutefois, ce problème trouverait sa source dans la fonction contenue dans la fonction addToCart()</t>
+  </si>
+  <si>
+    <t>210 à 252</t>
+  </si>
+  <si>
+    <t>Afin de vérifier cette fonction, il suffit d'effectuer un console.log lors de l'appui sur le bouton afin de vérifier si le clic sur ce dernier est bien detecté. Toutefois, le test serait plus pertinent pour la fonction contenue dans la fonciton addToCart() : buyItem()</t>
+  </si>
+  <si>
+    <r>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>buyItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il suffirait de sélectionner un produit avec les caractéristiques voulues, une fois le bouton appuyé, on peut effectuer un console.log sur le tableau shoppingCart envoyé au localstorage et vérifier que les informations du produit s'y trouvent bien.</t>
+  </si>
+  <si>
+    <t>index.js, product.js, cart.js</t>
+  </si>
+  <si>
+    <t>index.js et product.js</t>
+  </si>
+  <si>
+    <t>Cette fonciton permet d'ajouter un article au tableau shoppingCart et de le ranger dans le panier (localStorage) si les options choisies sont valides, en créant un objet contenant les informations à envoyer (image, nom, id, prix, option, quantité)</t>
+  </si>
+  <si>
+    <t>Les problèmes possibles pourraient être un objet possédant des valeurs invalides qui serait envoyé au panier. Il serait également possible que l'envoi au localstorage ne s'effectue pas correctement car le tableau n'aurait pas correctement ajouté l'objet produit</t>
+  </si>
+  <si>
+    <r>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>displayShoppingCart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <t>Cette fonction permet d'afficher le panier, le résumé et le formulaire d'achat</t>
+  </si>
+  <si>
+    <t>Afin de vérifier si cette fonction est fonctionnelle, il suffit de voir si la page du panier s'affiche correctement.</t>
+  </si>
+  <si>
+    <t>Le problème principal de cette fonction serait que sans elle, la page ne s'afficherait simplement pas</t>
+  </si>
+  <si>
+    <t>40 à 562</t>
+  </si>
+  <si>
+    <t>32 à 563</t>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shoppingCart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>La vérification de cette condition est assez simple : Si elle est fonctionnelle, le message votre panier est vide apparaîtra si la valeur du shoppingCart.length = 0 sinon le message sera supprimé et les autres fonctions d'affichage de la page (récap, total, formulaire) seront présentes</t>
+  </si>
+  <si>
+    <t>Cette condition permet d'effacer le message "votre panier est vide" si la longueur du tableau shoppingCart est supérieure à 0 et de créer les éléments requis pour afficher le panier</t>
+  </si>
+  <si>
+    <t>80 à 274</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shoppingCart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cette boucle for permet d'afficher le bloc du recapitulatif spécifique à chaque article enregistré dans le tableau shoppingCart du localStorage. Chaque élément retourne le nom, l'image, le prix et la quantité de chaque article</t>
+  </si>
+  <si>
+    <t>Nous pouvons vérifier si cette boucle retourne bien chaque article en analysant le tableau shoppingCart grâce à l'inspecteur et en comparant les informations du tableau avec celles affichées sur la page.</t>
+  </si>
+  <si>
+    <t>Un des problèmes possibles serait que les produits ne s'affichent pas correctement sur la page. Le tableau pourrait ne pas être correctement retourné ou les informations invalides</t>
+  </si>
+  <si>
+    <t>203 à 233 et 236 à 265</t>
+  </si>
+  <si>
+    <r>
+      <t>buttonQtLess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>addEventListener</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"click"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> et buttonQtMore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.addEventListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"click"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (event) {</t>
+    </r>
+  </si>
+  <si>
+    <t>Ces deux fonctions permettent d'augmenter, ou réduire la quantité d'un même article au moyen de boutons affichés sur la page.</t>
+  </si>
+  <si>
+    <t>Pour ces fonctions, la vérification peut se faire directement sur la page : lorsque l'on clique sur le bouton plus, la quantité affichée doit être incrémentée et ne doit pas dépasser une quantité de 20. Lorsque l'on clique sur le bouton moins, la quantité affichée doit être décrémentée et s'arrêter à 1 minimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le principal problème pouvant survenir avec cette fonciton est qu'il faut que la valeur de quantité qui sera incrémentée ou décrémentée soit correctement initialisée comme un nombre. En effet, si elle n'est pas correctement initialisée, alors lors de l'ajout de 1 à sa valeur initiale, elle concatènera le 1 à la valeur déjà existante, passant par exemple de 1 à 11. </t>
+  </si>
+  <si>
+    <t>268 à 273</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>buttonDelete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>addEventListener</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"click"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t>Cette fonciton sert à supprimer un article du panier en le retirant du tableau à l'id sélectionné (récupéré dans le tableau shoppingCart par la boucle for lors de la création des éléments) et en enregistrant le tableau nouvellement créé dans le localstorage avant d'actualiser la page pour effectuer les changements.</t>
+  </si>
+  <si>
+    <t>La vérification de cette fonction passe par l'observation de son comportement sur la page du panier. Si lorsque l'on appuie sur le bouton de suppression, l'article sélectionné et uniquement celui-ci disparaît, la fonction agit correctement. On peut également effectuer un console.log sur le tableau shoppingCart afin de vérifier si l'article souhaité a bien été supprimé</t>
+  </si>
+  <si>
+    <t>Le problème pouvant survenir est que tout le panier pourrait être supprimé car le tableau aurait été complètement remplacé.</t>
+  </si>
+  <si>
+    <t>298 à 303</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shoppingCart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++) {</t>
+    </r>
+  </si>
+  <si>
+    <t>Cette boucle sert à calculer la somme totale à payer en additionnant tous les articles du panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afin de vérifier cette boucle, il est possible de comparer le résultat obtenu avec la somme des articles du panier en la refaisant et, si les deux valeurs sont identiques, alors la boucle fonctionne correctement </t>
+  </si>
+  <si>
+    <t>Le problème pouvant survenir serait l'obtention d'une valeur incorrecte suite à une erreur lors du calcul de la somme au moment de la récupération du prix avec l'index du tableau.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +1425,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -659,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -676,8 +1526,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,21 +1863,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83A0E75-BCCE-4D77-AAC1-046A2BC4E49B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1029,9 +1897,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1049,9 +1917,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -1069,7 +1937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1129,14 +1997,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1149,7 +2017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +2037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1189,14 +2057,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1209,87 +2077,165 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +2245,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1309,7 +2255,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1319,9 +2265,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1329,9 +2275,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1339,9 +2285,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1349,9 +2295,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1359,9 +2305,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1369,9 +2315,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1379,7 +2325,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1389,7 +2335,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +2345,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +2355,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>

--- a/Plan de test.xlsx
+++ b/Plan de test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spart\Documents\GitHub\JonathanBinot_5_25022021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB5DDE-0050-4ADD-A28D-786233F4926A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB94A891-CE9B-4BE0-B5E8-3EFB408DD8F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D66CEF9-EE62-4792-A9B5-A6E822CB7761}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D66CEF9-EE62-4792-A9B5-A6E822CB7761}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -1664,6 +1664,9 @@
   </si>
   <si>
     <t>Un problème pourrait survenir sur cette page si l'id de la commande n'était pas correctement enregistré par l'API. L'id apparaîtrait alors comme undefined</t>
+  </si>
+  <si>
+    <t>Le message pourrait rester affiché malgré un panier rempli, ou bien ne pas s'afficher avec un panier vide</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1797,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1810,6 +1813,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,31 +1861,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2193,23 +2202,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83A0E75-BCCE-4D77-AAC1-046A2BC4E49B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" customWidth="1"/>
-    <col min="5" max="5" width="44.109375" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2229,14 +2241,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2249,14 +2261,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2269,14 +2281,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2289,14 +2301,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2309,14 +2321,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2329,14 +2341,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2349,14 +2361,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2369,14 +2381,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2389,14 +2401,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2409,14 +2421,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2429,14 +2441,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2449,14 +2461,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2469,14 +2481,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2485,16 +2497,18 @@
       <c r="E14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2507,14 +2521,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2527,14 +2541,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2547,7 +2561,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2567,7 +2581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2587,14 +2601,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2607,14 +2621,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2627,14 +2641,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2647,14 +2661,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2669,7 +2683,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>